--- a/CodeHive/Files/users.xlsx
+++ b/CodeHive/Files/users.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <workbookPr/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Louis Picque\IdeaProjects\Java_Projet_Wallet_CodeHive\CodeHive\Files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85CCA17C-FE56-4E87-8036-00A83FFEF91C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -21,28 +27,28 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>qsds</t>
-  </si>
-  <si>
-    <t>fLht+qHpzpBL3RSXdi6bhv0s0AaYctunYY866dS6SYY=</t>
-  </si>
-  <si>
-    <t>lbfvSSmrTv7rXaHaFF0aMw==</t>
-  </si>
-  <si>
-    <t>dsqs</t>
-  </si>
-  <si>
-    <t>1scdo2hxgGjisaGVKJ7hTj3aAr7TtaAW+4JtYynV7RY=</t>
-  </si>
-  <si>
-    <t>oEXsE9dxEwd+3uXUgGMShA==</t>
+    <t>test</t>
+  </si>
+  <si>
+    <t>jX0hkrsteav9KBBc2ftOh/t9nN/duP7PNRzzlw5CFkI=</t>
+  </si>
+  <si>
+    <t>DdiQHq2ZeCxCpDNt+Ir4+w==</t>
+  </si>
+  <si>
+    <t>test1</t>
+  </si>
+  <si>
+    <t>WhyEysmHTj4M4NveENy4jCJTF05rRzszuH+9bALkJpM=</t>
+  </si>
+  <si>
+    <t>5NcHHRuHNv/6U9G1Q4vSBw==</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -354,12 +360,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">

--- a/CodeHive/Files/users.xlsx
+++ b/CodeHive/Files/users.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Louis Picque\IdeaProjects\Java_Projet_Wallet_CodeHive\CodeHive\Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Skilo\IdeaProjects\CodeHive\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85CCA17C-FE56-4E87-8036-00A83FFEF91C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A24414B-143F-49B9-B3B5-2AEE7EC4A746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>test</t>
   </si>
@@ -43,6 +43,33 @@
   </si>
   <si>
     <t>5NcHHRuHNv/6U9G1Q4vSBw==</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>fvPlg5tP0teYfgajMgj7b3EgwkL3+/rdmIQ2IxsKBKk=</t>
+  </si>
+  <si>
+    <t>9LR29YBpzgKFT5P8Bi5qhA==</t>
+  </si>
+  <si>
+    <t>sxsxzs</t>
+  </si>
+  <si>
+    <t>piJk8dP/h1nPhGZ5dCTwNazyTZXPpc0GTBcUdeLXKJs=</t>
+  </si>
+  <si>
+    <t>MSI7bcLfRkvmWF/LjaAScA==</t>
+  </si>
+  <si>
+    <t>azerty</t>
+  </si>
+  <si>
+    <t>goBK8JDrhTm8/7JvjRfx6nr0b7kHINgnsrJQgBPa/OY=</t>
+  </si>
+  <si>
+    <t>DedTzVKudfREK6Jia9B2Gg==</t>
   </si>
 </sst>
 </file>
@@ -361,15 +388,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="4.73046875"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="44.265625"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="26.46484375"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
@@ -380,7 +412,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s" s="0">
         <v>3</v>
       </c>
@@ -389,6 +421,39 @@
       </c>
       <c r="C2" t="s" s="0">
         <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/CodeHive/Files/users.xlsx
+++ b/CodeHive/Files/users.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>test</t>
   </si>
@@ -70,6 +70,24 @@
   </si>
   <si>
     <t>DedTzVKudfREK6Jia9B2Gg==</t>
+  </si>
+  <si>
+    <t>AAA</t>
+  </si>
+  <si>
+    <t>MrPlFV/OrrrDHZeiO+tz1YB6vkINsvdtc4n1hyUNjVs=</t>
+  </si>
+  <si>
+    <t>GjNm+Zhdefr7W9LtefsSDw==</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>NWH3CJSReh6JsrIXloaA+5EPvPgJyt1yt4P5kgF4AkU=</t>
+  </si>
+  <si>
+    <t>SGl5a0zLko4BN+bAmwBWOA==</t>
   </si>
 </sst>
 </file>
@@ -388,7 +406,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
@@ -456,6 +474,28 @@
         <v>14</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CodeHive/Files/users.xlsx
+++ b/CodeHive/Files/users.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Skilo\IdeaProjects\CodeHive\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A24414B-143F-49B9-B3B5-2AEE7EC4A746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8343B23B-FD13-4FAD-9A18-982637934D52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,80 +25,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>jX0hkrsteav9KBBc2ftOh/t9nN/duP7PNRzzlw5CFkI=</t>
-  </si>
-  <si>
-    <t>DdiQHq2ZeCxCpDNt+Ir4+w==</t>
-  </si>
-  <si>
-    <t>test1</t>
-  </si>
-  <si>
-    <t>WhyEysmHTj4M4NveENy4jCJTF05rRzszuH+9bALkJpM=</t>
-  </si>
-  <si>
-    <t>5NcHHRuHNv/6U9G1Q4vSBw==</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>fvPlg5tP0teYfgajMgj7b3EgwkL3+/rdmIQ2IxsKBKk=</t>
-  </si>
-  <si>
-    <t>9LR29YBpzgKFT5P8Bi5qhA==</t>
-  </si>
-  <si>
-    <t>sxsxzs</t>
-  </si>
-  <si>
-    <t>piJk8dP/h1nPhGZ5dCTwNazyTZXPpc0GTBcUdeLXKJs=</t>
-  </si>
-  <si>
-    <t>MSI7bcLfRkvmWF/LjaAScA==</t>
-  </si>
-  <si>
-    <t>azerty</t>
-  </si>
-  <si>
-    <t>goBK8JDrhTm8/7JvjRfx6nr0b7kHINgnsrJQgBPa/OY=</t>
-  </si>
-  <si>
-    <t>DedTzVKudfREK6Jia9B2Gg==</t>
-  </si>
-  <si>
-    <t>AAA</t>
-  </si>
-  <si>
-    <t>MrPlFV/OrrrDHZeiO+tz1YB6vkINsvdtc4n1hyUNjVs=</t>
-  </si>
-  <si>
-    <t>GjNm+Zhdefr7W9LtefsSDw==</t>
-  </si>
-  <si>
-    <t>k</t>
-  </si>
-  <si>
-    <t>NWH3CJSReh6JsrIXloaA+5EPvPgJyt1yt4P5kgF4AkU=</t>
-  </si>
-  <si>
-    <t>SGl5a0zLko4BN+bAmwBWOA==</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -121,13 +64,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -406,95 +352,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="4.73046875"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="44.265625"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="26.46484375"/>
+    <col min="1" max="1" width="4.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.46484375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2" t="s" s="0">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>20</v>
-      </c>
+    <row r="10" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CodeHive/Files/users.xlsx
+++ b/CodeHive/Files/users.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Skilo\IdeaProjects\CodeHive\Files\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,11 +25,34 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>sQj3vMLIMitkzqN7I9yMTcl8GJDT/O1zdxD9vVhJhw8=</t>
+  </si>
+  <si>
+    <t>N6PcaBTc/MGNioDSaQlZHg==</t>
+  </si>
+  <si>
+    <t>test@test.fr</t>
+  </si>
+  <si>
+    <t>louis</t>
+  </si>
+  <si>
+    <t>5dnuFWkfEQrlpRv6hYErp0pV5NTjagmtRDLsoshGU8w=</t>
+  </si>
+  <si>
+    <t>D/M6ZcaKFiwTRzh1Yv3zqg==</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -352,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D10"/>
+  <dimension ref="A10:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
@@ -360,15 +383,43 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.73046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.46484375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.86328125" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="4.73046875"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="44.265625"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="26.46484375"/>
+    <col min="4" max="4" customWidth="true" width="33.86328125"/>
   </cols>
   <sheetData>
     <row r="10" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D10" s="1"/>
     </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CodeHive/Files/users.xlsx
+++ b/CodeHive/Files/users.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Skilo\IdeaProjects\CodeHive\Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Louis Picque\IdeaProjects\Java_Projet_Wallet_CodeHive\CodeHive\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8343B23B-FD13-4FAD-9A18-982637934D52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89BD177F-25EF-4F12-BECD-9C91C19A3172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="2202" windowWidth="17280" windowHeight="9984" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,27 +25,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t>test</t>
   </si>
   <si>
-    <t>sQj3vMLIMitkzqN7I9yMTcl8GJDT/O1zdxD9vVhJhw8=</t>
-  </si>
-  <si>
-    <t>N6PcaBTc/MGNioDSaQlZHg==</t>
-  </si>
-  <si>
-    <t>test@test.fr</t>
-  </si>
-  <si>
-    <t>louis</t>
-  </si>
-  <si>
-    <t>5dnuFWkfEQrlpRv6hYErp0pV5NTjagmtRDLsoshGU8w=</t>
-  </si>
-  <si>
-    <t>D/M6ZcaKFiwTRzh1Yv3zqg==</t>
+    <t>3NgT7njx0KPacAzZF3BRml2wLyaaHzuIapEyifrxnG0=</t>
+  </si>
+  <si>
+    <t>Zky2WWKH4gINYLtZ6tK2GA==</t>
+  </si>
+  <si>
+    <t>balance</t>
+  </si>
+  <si>
+    <t>bitcoin</t>
+  </si>
+  <si>
+    <t>ethereum</t>
+  </si>
+  <si>
+    <t>AAPL</t>
   </si>
 </sst>
 </file>
@@ -53,18 +53,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -87,16 +79,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -375,49 +364,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A10:D12"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="4.73046875"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="44.265625"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="26.46484375"/>
-    <col min="4" max="4" customWidth="true" width="33.86328125"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="4.734375"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="44.26171875"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="26.47265625"/>
+    <col min="4" max="4" customWidth="true" width="33.83984375"/>
   </cols>
   <sheetData>
-    <row r="10" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="0">
+    <row r="1">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B11" t="s" s="0">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C11" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="D11" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="B12" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C12" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="D12" t="s" s="0">
-        <v>4</v>
+      <c r="D1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="E1" t="n" s="0">
+        <v>57063.6</v>
+      </c>
+      <c r="F1" t="n" s="0">
+        <v>14447.599999999999</v>
+      </c>
+      <c r="G1" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="H1" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="I1" t="n" s="0">
+        <v>54525.229999999996</v>
+      </c>
+      <c r="J1" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="K1" t="n" s="0">
+        <v>56877.2</v>
       </c>
     </row>
   </sheetData>

--- a/CodeHive/Files/users.xlsx
+++ b/CodeHive/Files/users.xlsx
@@ -1,51 +1,115 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Louis Picque\IdeaProjects\Java_Projet_Wallet_CodeHive\CodeHive\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89BD177F-25EF-4F12-BECD-9C91C19A3172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3157CD8D-A929-4275-B490-E22DA65856E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="2202" windowWidth="17280" windowHeight="9984" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3696" windowWidth="17280" windowHeight="9984" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Users" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+  <si>
+    <t>bitcoin</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Salt</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>ethereum</t>
+  </si>
+  <si>
+    <t>staked-ether</t>
+  </si>
+  <si>
+    <t>ripple</t>
+  </si>
+  <si>
+    <t>tether</t>
+  </si>
+  <si>
+    <t>cardano</t>
+  </si>
+  <si>
+    <t>binancecoin</t>
+  </si>
+  <si>
+    <t>solana</t>
+  </si>
+  <si>
+    <t>usd-coin</t>
+  </si>
+  <si>
+    <t>avalanche-2</t>
+  </si>
+  <si>
+    <t>MSFT</t>
+  </si>
+  <si>
+    <t>NFLX</t>
+  </si>
+  <si>
+    <t>GOOGL</t>
+  </si>
+  <si>
+    <t>NVDA</t>
+  </si>
+  <si>
+    <t>AAPL</t>
+  </si>
+  <si>
+    <t>TSLA</t>
+  </si>
+  <si>
+    <t>INTC</t>
+  </si>
+  <si>
+    <t>AMD</t>
+  </si>
+  <si>
+    <t>AMZN</t>
+  </si>
+  <si>
+    <t>balance_crypto</t>
+  </si>
+  <si>
+    <t>balance_stocks</t>
+  </si>
+  <si>
+    <t>balance_cash</t>
+  </si>
+  <si>
+    <t>balance_total</t>
+  </si>
   <si>
     <t>test</t>
   </si>
   <si>
-    <t>3NgT7njx0KPacAzZF3BRml2wLyaaHzuIapEyifrxnG0=</t>
-  </si>
-  <si>
-    <t>Zky2WWKH4gINYLtZ6tK2GA==</t>
-  </si>
-  <si>
-    <t>balance</t>
-  </si>
-  <si>
-    <t>bitcoin</t>
-  </si>
-  <si>
-    <t>ethereum</t>
-  </si>
-  <si>
-    <t>AAPL</t>
+    <t>YwfDV3d3GMbWAj1g6uJ2VWHuraurNsRd0Y7RO5m3V84=</t>
+  </si>
+  <si>
+    <t>Q0tABjL6lDgZXz2TOq2b0w==</t>
   </si>
 </sst>
 </file>
@@ -56,8 +120,8 @@
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <color indexed="8"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -102,7 +166,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -112,42 +176,42 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -177,12 +241,29 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -212,6 +293,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -273,13 +371,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -288,6 +379,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -352,11 +450,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -364,53 +482,133 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="4.734375"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="44.26171875"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="26.47265625"/>
-    <col min="4" max="4" customWidth="true" width="33.83984375"/>
+    <col min="5" max="5" customWidth="true" width="11.3125"/>
+    <col min="6" max="6" customWidth="true" width="12.83984375"/>
+    <col min="7" max="7" customWidth="true" width="12.9453125"/>
+    <col min="8" max="12" customWidth="true" width="11.7890625"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="K1" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="L1" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="M1" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="N1" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="O1" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="P1" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="Q1" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="R1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="E1" t="n" s="0">
-        <v>57063.6</v>
-      </c>
-      <c r="F1" t="n" s="0">
-        <v>14447.599999999999</v>
-      </c>
-      <c r="G1" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="H1" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="I1" t="n" s="0">
-        <v>54525.229999999996</v>
-      </c>
-      <c r="J1" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="K1" t="n" s="0">
-        <v>56877.2</v>
+      <c r="S1" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="T1" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="U1" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="V1" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="W1" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="X1" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="Y1" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="Z1" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="AA1" t="s" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="E2" t="n" s="0">
+        <v>100000.0</v>
+      </c>
+      <c r="F2" t="n" s="0">
+        <v>12100.0</v>
+      </c>
+      <c r="G2" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H2" t="n" s="0">
+        <v>87900.0</v>
+      </c>
+      <c r="I2" t="n" s="0">
+        <v>1.9567250683875412</v>
+      </c>
+      <c r="R2">
+        <v>0.11719207781553967</v>
       </c>
     </row>
   </sheetData>

--- a/CodeHive/Files/users.xlsx
+++ b/CodeHive/Files/users.xlsx
@@ -596,19 +596,22 @@
         <v>100000.0</v>
       </c>
       <c r="F2" t="n" s="0">
-        <v>12100.0</v>
+        <v>11000.0</v>
       </c>
       <c r="G2" t="n" s="0">
-        <v>0.0</v>
+        <v>50.0</v>
       </c>
       <c r="H2" t="n" s="0">
-        <v>87900.0</v>
+        <v>88950.0</v>
       </c>
       <c r="I2" t="n" s="0">
         <v>1.9567250683875412</v>
       </c>
-      <c r="R2">
-        <v>0.11719207781553967</v>
+      <c r="R2" t="n" s="0">
+        <v>0.09136639920068033</v>
+      </c>
+      <c r="W2" t="n" s="0">
+        <v>0.26824034334763946</v>
       </c>
     </row>
   </sheetData>

--- a/CodeHive/Files/users.xlsx
+++ b/CodeHive/Files/users.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Louis Picque\IdeaProjects\Java_Projet_Wallet_CodeHive\CodeHive\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3157CD8D-A929-4275-B490-E22DA65856E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55CD1552-F9FE-4035-A956-5D7D33EF94A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3696" windowWidth="17280" windowHeight="9984" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>bitcoin</t>
   </si>
@@ -110,6 +110,15 @@
   </si>
   <si>
     <t>Q0tABjL6lDgZXz2TOq2b0w==</t>
+  </si>
+  <si>
+    <t>test1</t>
+  </si>
+  <si>
+    <t>/PFD9s3S942XHHqVyeAEFlXX7XDb5W9bVgTeJhZ3lfI=</t>
+  </si>
+  <si>
+    <t>IxSzKeoIdAPYqbuMOvAaKw==</t>
   </si>
 </sst>
 </file>
@@ -482,14 +491,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA2"/>
+  <dimension ref="A1:AA3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
+    <col min="2" max="2" customWidth="true" width="26.20703125"/>
+    <col min="3" max="3" customWidth="true" width="23.9453125"/>
     <col min="5" max="5" customWidth="true" width="11.3125"/>
     <col min="6" max="6" customWidth="true" width="12.83984375"/>
     <col min="7" max="7" customWidth="true" width="12.9453125"/>
@@ -596,22 +607,51 @@
         <v>100000.0</v>
       </c>
       <c r="F2" t="n" s="0">
-        <v>11000.0</v>
+        <v>11500.0</v>
       </c>
       <c r="G2" t="n" s="0">
         <v>50.0</v>
       </c>
       <c r="H2" t="n" s="0">
-        <v>88950.0</v>
+        <v>88450.0</v>
       </c>
       <c r="I2" t="n" s="0">
         <v>1.9567250683875412</v>
       </c>
       <c r="R2" t="n" s="0">
-        <v>0.09136639920068033</v>
+        <v>0.10315634944709029</v>
       </c>
       <c r="W2" t="n" s="0">
         <v>0.26824034334763946</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>100000.0</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>99500.0</v>
+      </c>
+      <c r="R3" t="n" s="0">
+        <v>0.01178995024640996</v>
       </c>
     </row>
   </sheetData>

--- a/CodeHive/Files/users.xlsx
+++ b/CodeHive/Files/users.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Louis Picque\IdeaProjects\Java_Projet_Wallet_CodeHive\CodeHive\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55CD1552-F9FE-4035-A956-5D7D33EF94A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D69D0191-22B2-4E7C-A0BF-283698106517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="36">
   <si>
     <t>bitcoin</t>
   </si>
@@ -119,6 +132,15 @@
   </si>
   <si>
     <t>IxSzKeoIdAPYqbuMOvAaKw==</t>
+  </si>
+  <si>
+    <t>dady</t>
+  </si>
+  <si>
+    <t>pdo8sxMF/OUKuwU8WDuT8btshfueCIDNxKcC/vRt/V8=</t>
+  </si>
+  <si>
+    <t>4OtCWiY1eMhDsOHz0a/8cA==</t>
   </si>
 </sst>
 </file>
@@ -491,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA3"/>
+  <dimension ref="A1:AA27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -604,24 +626,24 @@
         <v>27</v>
       </c>
       <c r="E2" t="n" s="0">
-        <v>100000.0</v>
-      </c>
-      <c r="F2" t="n" s="0">
+        <v>34456.0</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>12500.0</v>
+      </c>
+      <c r="G2" s="0" t="n">
         <v>11500.0</v>
       </c>
-      <c r="G2" t="n" s="0">
-        <v>50.0</v>
-      </c>
       <c r="H2" t="n" s="0">
-        <v>88450.0</v>
-      </c>
-      <c r="I2" t="n" s="0">
+        <v>11456.0</v>
+      </c>
+      <c r="I2" s="0" t="n">
         <v>1.9567250683875412</v>
       </c>
-      <c r="R2" t="n" s="0">
-        <v>0.10315634944709029</v>
-      </c>
-      <c r="W2" t="n" s="0">
+      <c r="R2" s="0" t="n">
+        <v>0.12662169589679229</v>
+      </c>
+      <c r="W2" s="0" t="n">
         <v>0.26824034334763946</v>
       </c>
     </row>
@@ -638,20 +660,186 @@
       <c r="D3" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="E3" s="0" t="n">
-        <v>100000.0</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>500.0</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <v>99500.0</v>
-      </c>
-      <c r="R3" t="n" s="0">
-        <v>0.01178995024640996</v>
+      <c r="E3" s="0">
+        <f t="shared" si="0"/>
+        <v>100000</v>
+      </c>
+      <c r="F3" s="0">
+        <v>500</v>
+      </c>
+      <c r="G3" s="0">
+        <v>0</v>
+      </c>
+      <c r="H3" s="0">
+        <v>99500</v>
+      </c>
+      <c r="R3" s="0">
+        <v>1.1789950246409961E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="E4" s="0">
+        <f t="shared" si="0"/>
+        <v>100000</v>
+      </c>
+      <c r="F4" s="0">
+        <v>0</v>
+      </c>
+      <c r="G4" s="0">
+        <v>0</v>
+      </c>
+      <c r="H4" s="0">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+      <c r="E5" s="0">
+        <f>F5+G5+H5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+      <c r="E6" s="0">
+        <f t="shared" ref="E6:E27" si="1">F6+G6+H6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+      <c r="E7" s="0">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+      <c r="E8" s="0">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+      <c r="E9" s="0">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+      <c r="E10" s="0">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+      <c r="E11" s="0">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+      <c r="E12" s="0">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+      <c r="E13" s="0">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+      <c r="E14" s="0">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+      <c r="E15" s="0">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+      <c r="E16" s="0">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E17" s="0">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E18" s="0">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E19" s="0">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E20" s="0">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E21" s="0">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E22" s="0">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E23" s="0">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E24" s="0">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E25" s="0">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E26" s="0">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E27" s="0">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/CodeHive/Files/users.xlsx
+++ b/CodeHive/Files/users.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="46">
   <si>
     <t>bitcoin</t>
   </si>
@@ -141,6 +141,36 @@
   </si>
   <si>
     <t>4OtCWiY1eMhDsOHz0a/8cA==</t>
+  </si>
+  <si>
+    <t>louis</t>
+  </si>
+  <si>
+    <t>Rti5B7vH2xZfrOAoaGa6IdBUgOZSDDaMYjsiSPT4Ytc=</t>
+  </si>
+  <si>
+    <t>uTmcy8wvv0wsiOHImnZxfg==</t>
+  </si>
+  <si>
+    <t>Louis</t>
+  </si>
+  <si>
+    <t>test3</t>
+  </si>
+  <si>
+    <t>BOit2+UhQtigPyH6AtDqOKU6u98pGz3IqN0Gf5lVXRI=</t>
+  </si>
+  <si>
+    <t>SsRsZue77VJgGNfYPb13Ug==</t>
+  </si>
+  <si>
+    <t>test4</t>
+  </si>
+  <si>
+    <t>Q2sXhGtjd1T5iE5gf1fCpA993C6kjngEUQnJaxu1XZ0=</t>
+  </si>
+  <si>
+    <t>cfW3m1Nxv5D+2VMfn3VNGA==</t>
   </si>
 </sst>
 </file>
@@ -513,7 +543,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA27"/>
+  <dimension ref="A1:AA30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
@@ -842,6 +872,90 @@
         <v>0</v>
       </c>
     </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D28" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="E28" t="n" s="0">
+        <v>100000.0</v>
+      </c>
+      <c r="F28" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G28" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H28" t="n" s="0">
+        <v>101000.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="D29" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="E29" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="F29" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G29" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H29" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="D30" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="E30" t="n" s="0">
+        <v>10000.0</v>
+      </c>
+      <c r="F30" t="n" s="0">
+        <v>1000.0</v>
+      </c>
+      <c r="G30" t="n" s="0">
+        <v>5000.0</v>
+      </c>
+      <c r="H30" t="n" s="0">
+        <v>4000.0</v>
+      </c>
+      <c r="R30" t="n" s="0">
+        <v>0.02345050770349178</v>
+      </c>
+      <c r="W30" t="n" s="0">
+        <v>26.824034334763947</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CodeHive/Files/users.xlsx
+++ b/CodeHive/Files/users.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Louis Picque\IdeaProjects\Java_Projet_Wallet_CodeHive\CodeHive\Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Skilo\IdeaProjects\CodeHive\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D69D0191-22B2-4E7C-A0BF-283698106517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B46AC4-45DB-4196-A615-EB8C1E7403D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
   <si>
     <t>bitcoin</t>
   </si>
@@ -141,6 +141,39 @@
   </si>
   <si>
     <t>4OtCWiY1eMhDsOHz0a/8cA==</t>
+  </si>
+  <si>
+    <t>fkh7ur+aeUlIs/v4LOJaqwUsmmrSvUvE7pNKXLt9U4o=</t>
+  </si>
+  <si>
+    <t>6JD2ULjDjaRnxYYhb8v0/w==</t>
+  </si>
+  <si>
+    <t>enzo.depre@sfr.fr</t>
+  </si>
+  <si>
+    <t>kqqH81X29Vd++NW/D+p4FZsVlXQ7e/nwPe7kd+/Juc4=</t>
+  </si>
+  <si>
+    <t>GpqTSc9sD3GzJ3E2OEDAuQ==</t>
+  </si>
+  <si>
+    <t>GE43JbhXPowJ6lJ1l/mI/B++PHz1JZzIx4WQnjBnQmw=</t>
+  </si>
+  <si>
+    <t>UOEX7w+m8O20EfAQDdHscw==</t>
+  </si>
+  <si>
+    <t>Test4</t>
+  </si>
+  <si>
+    <t>LLt7O3mzsCRSg2YCViGtVgGQP5pyzYeRVs60DCck0WI=</t>
+  </si>
+  <si>
+    <t>YjbKAOvNEfuAMfdclhLZWw==</t>
+  </si>
+  <si>
+    <t>enzod.depre@sfr.fr</t>
   </si>
 </sst>
 </file>
@@ -513,23 +546,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA27"/>
+  <dimension ref="A1:AA8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="26.20703125"/>
-    <col min="3" max="3" customWidth="true" width="23.9453125"/>
-    <col min="5" max="5" customWidth="true" width="11.3125"/>
-    <col min="6" max="6" customWidth="true" width="12.83984375"/>
-    <col min="7" max="7" customWidth="true" width="12.9453125"/>
-    <col min="8" max="12" customWidth="true" width="11.7890625"/>
+    <col min="2" max="2" customWidth="true" width="26.19921875"/>
+    <col min="3" max="3" customWidth="true" width="23.9296875"/>
+    <col min="4" max="4" customWidth="true" width="18.796875"/>
+    <col min="5" max="5" customWidth="true" width="11.33203125"/>
+    <col min="6" max="6" customWidth="true" width="12.86328125"/>
+    <col min="7" max="7" customWidth="true" width="12.9296875"/>
+    <col min="8" max="12" customWidth="true" width="11.796875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A1" t="s" s="0">
         <v>1</v>
       </c>
@@ -612,7 +646,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" t="s" s="0">
         <v>27</v>
       </c>
@@ -625,17 +659,17 @@
       <c r="D2" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="E2" t="n" s="0">
-        <v>34456.0</v>
+      <c r="E2" s="0" t="n">
+        <v>57456.0</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>12500.0</v>
+        <v>12511.0</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>11500.0</v>
+        <v>11520.0</v>
       </c>
       <c r="H2" t="n" s="0">
-        <v>11456.0</v>
+        <v>33425.0</v>
       </c>
       <c r="I2" s="0" t="n">
         <v>1.9567250683875412</v>
@@ -644,10 +678,10 @@
         <v>0.12662169589679229</v>
       </c>
       <c r="W2" s="0" t="n">
-        <v>0.26824034334763946</v>
+        <v>0.3755364806866952</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" t="s" s="0">
         <v>30</v>
       </c>
@@ -661,7 +695,6 @@
         <v>30</v>
       </c>
       <c r="E3" s="0">
-        <f t="shared" si="0"/>
         <v>100000</v>
       </c>
       <c r="F3" s="0">
@@ -677,7 +710,7 @@
         <v>1.1789950246409961E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" t="s" s="0">
         <v>33</v>
       </c>
@@ -691,7 +724,6 @@
         <v>33</v>
       </c>
       <c r="E4" s="0">
-        <f t="shared" si="0"/>
         <v>100000</v>
       </c>
       <c r="F4" s="0">
@@ -704,142 +736,102 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.55000000000000004">
-      <c r="E5" s="0">
-        <f>F5+G5+H5</f>
-        <v>0</v>
+    <row r="5">
+      <c r="A5" s="0"/>
+      <c r="B5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="E5" t="n" s="0">
+        <v>100000.0</v>
+      </c>
+      <c r="F5" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G5" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H5" t="n" s="0">
+        <v>100000.0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.55000000000000004">
-      <c r="E6" s="0">
-        <f t="shared" ref="E6:E27" si="1">F6+G6+H6</f>
-        <v>0</v>
+    <row r="6">
+      <c r="A6" s="0"/>
+      <c r="B6" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="E6" t="n" s="0">
+        <v>100000.0</v>
+      </c>
+      <c r="F6" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G6" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H6" t="n" s="0">
+        <v>100000.0</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.55000000000000004">
-      <c r="E7" s="0">
-        <f t="shared" si="1"/>
-        <v>0</v>
+    <row r="7">
+      <c r="A7" s="0"/>
+      <c r="B7" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="E7" t="n" s="0">
+        <v>100000.0</v>
+      </c>
+      <c r="F7" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G7" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H7" t="n" s="0">
+        <v>100000.0</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.55000000000000004">
-      <c r="E8" s="0">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.55000000000000004">
-      <c r="E9" s="0">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.55000000000000004">
-      <c r="E10" s="0">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.55000000000000004">
-      <c r="E11" s="0">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.55000000000000004">
-      <c r="E12" s="0">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.55000000000000004">
-      <c r="E13" s="0">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.55000000000000004">
-      <c r="E14" s="0">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.55000000000000004">
-      <c r="E15" s="0">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.55000000000000004">
-      <c r="E16" s="0">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E17" s="0">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E18" s="0">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E19" s="0">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E20" s="0">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E21" s="0">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E22" s="0">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="5:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E23" s="0">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="5:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E24" s="0">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="5:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E25" s="0">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="5:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E26" s="0">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="5:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E27" s="0">
-        <f t="shared" si="1"/>
-        <v>0</v>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="E8" t="n" s="0">
+        <v>100000.0</v>
+      </c>
+      <c r="F8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H8" t="n" s="0">
+        <v>100000.0</v>
       </c>
     </row>
   </sheetData>

--- a/CodeHive/Files/users.xlsx
+++ b/CodeHive/Files/users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Louis Picque\IdeaProjects\Java_Projet_Wallet_CodeHive\CodeHive\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D69D0191-22B2-4E7C-A0BF-283698106517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A292FC9-FF07-4314-A666-46DC6CB8E32A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
   <si>
     <t>bitcoin</t>
   </si>
@@ -134,43 +134,22 @@
     <t>IxSzKeoIdAPYqbuMOvAaKw==</t>
   </si>
   <si>
-    <t>dady</t>
-  </si>
-  <si>
-    <t>pdo8sxMF/OUKuwU8WDuT8btshfueCIDNxKcC/vRt/V8=</t>
-  </si>
-  <si>
-    <t>4OtCWiY1eMhDsOHz0a/8cA==</t>
-  </si>
-  <si>
-    <t>louis</t>
-  </si>
-  <si>
-    <t>Rti5B7vH2xZfrOAoaGa6IdBUgOZSDDaMYjsiSPT4Ytc=</t>
-  </si>
-  <si>
-    <t>uTmcy8wvv0wsiOHImnZxfg==</t>
-  </si>
-  <si>
-    <t>Louis</t>
-  </si>
-  <si>
-    <t>test3</t>
-  </si>
-  <si>
-    <t>BOit2+UhQtigPyH6AtDqOKU6u98pGz3IqN0Gf5lVXRI=</t>
-  </si>
-  <si>
-    <t>SsRsZue77VJgGNfYPb13Ug==</t>
-  </si>
-  <si>
-    <t>test4</t>
-  </si>
-  <si>
-    <t>Q2sXhGtjd1T5iE5gf1fCpA993C6kjngEUQnJaxu1XZ0=</t>
-  </si>
-  <si>
-    <t>cfW3m1Nxv5D+2VMfn3VNGA==</t>
+    <t>testt</t>
+  </si>
+  <si>
+    <t>aaae8slUc9vakDdNRO7k+8201OwKEoneu/QeJ/eRNgI=</t>
+  </si>
+  <si>
+    <t>tlHQy/yy9mDpOCDHq3EtEg==</t>
+  </si>
+  <si>
+    <t>testtt</t>
+  </si>
+  <si>
+    <t>l+IRRNGjT0X5mgzffFjDqT8R1DOlnuWSZMj6PlJAEqU=</t>
+  </si>
+  <si>
+    <t>t+KQdEztzK3T5ZojcGz/zQ==</t>
   </si>
 </sst>
 </file>
@@ -543,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA30"/>
+  <dimension ref="A1:AA5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -655,25 +634,25 @@
       <c r="D2" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="E2" t="n" s="0">
-        <v>34456.0</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>12500.0</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <v>11500.0</v>
+      <c r="E2" s="0">
+        <v>100000</v>
+      </c>
+      <c r="F2" s="0">
+        <v>12500</v>
+      </c>
+      <c r="G2" s="0">
+        <v>11500</v>
       </c>
       <c r="H2" t="n" s="0">
         <v>11456.0</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="I2" s="0">
         <v>1.9567250683875412</v>
       </c>
-      <c r="R2" s="0" t="n">
+      <c r="R2" s="0">
         <v>0.12662169589679229</v>
       </c>
-      <c r="W2" s="0" t="n">
+      <c r="W2" s="0">
         <v>0.26824034334763946</v>
       </c>
     </row>
@@ -691,7 +670,6 @@
         <v>30</v>
       </c>
       <c r="E3" s="0">
-        <f t="shared" si="0"/>
         <v>100000</v>
       </c>
       <c r="F3" s="0">
@@ -721,239 +699,48 @@
         <v>33</v>
       </c>
       <c r="E4" s="0">
-        <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="F4" s="0">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G4" s="0">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="H4" s="0">
-        <v>100000</v>
+        <v>1200</v>
+      </c>
+      <c r="R4" s="0">
+        <v>0.19595835884874463</v>
+      </c>
+      <c r="W4" s="0">
+        <v>4.2918454935622314</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>27</v>
+      </c>
       <c r="E5" s="0">
-        <f>F5+G5+H5</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.55000000000000004">
-      <c r="E6" s="0">
-        <f t="shared" ref="E6:E27" si="1">F6+G6+H6</f>
+      <c r="F5" s="0">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.55000000000000004">
-      <c r="E7" s="0">
-        <f t="shared" si="1"/>
+      <c r="G5" s="0">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.55000000000000004">
-      <c r="E8" s="0">
-        <f t="shared" si="1"/>
+      <c r="H5" s="0">
         <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.55000000000000004">
-      <c r="E9" s="0">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.55000000000000004">
-      <c r="E10" s="0">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.55000000000000004">
-      <c r="E11" s="0">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.55000000000000004">
-      <c r="E12" s="0">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.55000000000000004">
-      <c r="E13" s="0">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.55000000000000004">
-      <c r="E14" s="0">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.55000000000000004">
-      <c r="E15" s="0">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.55000000000000004">
-      <c r="E16" s="0">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E17" s="0">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E18" s="0">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E19" s="0">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E20" s="0">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E21" s="0">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E22" s="0">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="5:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E23" s="0">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="5:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E24" s="0">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="5:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E25" s="0">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="5:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E26" s="0">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="5:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E27" s="0">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="B28" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="C28" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="D28" t="s" s="0">
-        <v>39</v>
-      </c>
-      <c r="E28" t="n" s="0">
-        <v>100000.0</v>
-      </c>
-      <c r="F28" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="G28" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="H28" t="n" s="0">
-        <v>101000.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="0">
-        <v>40</v>
-      </c>
-      <c r="B29" t="s" s="0">
-        <v>41</v>
-      </c>
-      <c r="C29" t="s" s="0">
-        <v>42</v>
-      </c>
-      <c r="D29" t="s" s="0">
-        <v>40</v>
-      </c>
-      <c r="E29" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="F29" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="G29" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="H29" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="B30" t="s" s="0">
-        <v>44</v>
-      </c>
-      <c r="C30" t="s" s="0">
-        <v>45</v>
-      </c>
-      <c r="D30" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="E30" t="n" s="0">
-        <v>10000.0</v>
-      </c>
-      <c r="F30" t="n" s="0">
-        <v>1000.0</v>
-      </c>
-      <c r="G30" t="n" s="0">
-        <v>5000.0</v>
-      </c>
-      <c r="H30" t="n" s="0">
-        <v>4000.0</v>
-      </c>
-      <c r="R30" t="n" s="0">
-        <v>0.02345050770349178</v>
-      </c>
-      <c r="W30" t="n" s="0">
-        <v>26.824034334763947</v>
       </c>
     </row>
   </sheetData>

--- a/CodeHive/Files/users.xlsx
+++ b/CodeHive/Files/users.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="50">
   <si>
     <t>bitcoin</t>
   </si>
@@ -150,6 +150,39 @@
   </si>
   <si>
     <t>t+KQdEztzK3T5ZojcGz/zQ==</t>
+  </si>
+  <si>
+    <t>d cjkn</t>
+  </si>
+  <si>
+    <t>xdMzNK8z0lhySObLL1hklJqbD1cNU+gEDYrnT0/ww2w=</t>
+  </si>
+  <si>
+    <t>oYUSbhn0u9tzmzHnwuhzfg==</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Fn2c941Uob1cFdUyCDZW4YSf3qwGHKiTgtBngyVpXDU=</t>
+  </si>
+  <si>
+    <t>w0K4cw45w15BVgLm0wrzGQ==</t>
+  </si>
+  <si>
+    <t>enzo.depre@sfr.fr</t>
+  </si>
+  <si>
+    <t>enzo</t>
+  </si>
+  <si>
+    <t>n0gupyTYC3dv17xd75tZ9Vh3dHecprYiwoeFC9mT94A=</t>
+  </si>
+  <si>
+    <t>IW0UctQ2kqBWHomd55y7zA==</t>
   </si>
 </sst>
 </file>
@@ -522,7 +555,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA5"/>
+  <dimension ref="A1:AA8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
@@ -634,25 +667,25 @@
       <c r="D2" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="E2" s="0">
-        <v>100000</v>
-      </c>
-      <c r="F2" s="0">
-        <v>12500</v>
-      </c>
-      <c r="G2" s="0">
-        <v>11500</v>
+      <c r="E2" s="0" t="n">
+        <v>35456.0</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>12500.0</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>11500.0</v>
       </c>
       <c r="H2" t="n" s="0">
-        <v>11456.0</v>
-      </c>
-      <c r="I2" s="0">
+        <v>21457.0</v>
+      </c>
+      <c r="I2" s="0" t="n">
         <v>1.9567250683875412</v>
       </c>
-      <c r="R2" s="0">
+      <c r="R2" s="0" t="n">
         <v>0.12662169589679229</v>
       </c>
-      <c r="W2" s="0">
+      <c r="W2" s="0" t="n">
         <v>0.26824034334763946</v>
       </c>
     </row>
@@ -741,6 +774,84 @@
       </c>
       <c r="H5" s="0">
         <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="E6" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="F6" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G6" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H6" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="E7" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="F7" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G7" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H7" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="E8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="F8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H8" t="n" s="0">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
